--- a/딥러닝움원순위예측_프로젝트간트차트.xlsx
+++ b/딥러닝움원순위예측_프로젝트간트차트.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F115C54F-0797-47A6-86E7-11C517ABE637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28800" windowHeight="14325"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ActualBeyond">실제기간*('프로젝트 플래너'!$E1&gt;0)</definedName>
-    <definedName name="PercentCompleteBeyond">('프로젝트 플래너'!A$4=MEDIAN('프로젝트 플래너'!A$4,'프로젝트 플래너'!$E1,'프로젝트 플래너'!$E1+'프로젝트 플래너'!$F1)*('프로젝트 플래너'!$E1&gt;0))*(('프로젝트 플래너'!A$4&lt;(INT('프로젝트 플래너'!$E1+'프로젝트 플래너'!$F1*'프로젝트 플래너'!$G1)))+('프로젝트 플래너'!A$4='프로젝트 플래너'!$E1))*('프로젝트 플래너'!$G1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">('프로젝트 플래너'!A$5=MEDIAN('프로젝트 플래너'!A$5,'프로젝트 플래너'!$E1,'프로젝트 플래너'!$E1+'프로젝트 플래너'!$F1)*('프로젝트 플래너'!$E1&gt;0))*(('프로젝트 플래너'!A$5&lt;(INT('프로젝트 플래너'!$E1+'프로젝트 플래너'!$F1*'프로젝트 플래너'!$G1)))+('프로젝트 플래너'!A$5='프로젝트 플래너'!$E1))*('프로젝트 플래너'!$G1&gt;0)</definedName>
     <definedName name="period_selected">'프로젝트 플래너'!$H$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 플래너'!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 플래너'!$3:$5</definedName>
     <definedName name="계획">계획기간*('프로젝트 플래너'!$C1&gt;0)</definedName>
-    <definedName name="계획기간">'프로젝트 플래너'!A$4=MEDIAN('프로젝트 플래너'!A$4,'프로젝트 플래너'!$C1,'프로젝트 플래너'!$C1+'프로젝트 플래너'!$D1-1)</definedName>
+    <definedName name="계획기간">'프로젝트 플래너'!A$5=MEDIAN('프로젝트 플래너'!A$5,'프로젝트 플래너'!$C1,'프로젝트 플래너'!$C1+'프로젝트 플래너'!$D1-1)</definedName>
     <definedName name="실제">(실제기간*('프로젝트 플래너'!$E1&gt;0))*계획기간</definedName>
-    <definedName name="실제기간">'프로젝트 플래너'!A$4=MEDIAN('프로젝트 플래너'!A$4,'프로젝트 플래너'!$E1,'프로젝트 플래너'!$E1+'프로젝트 플래너'!$F1-1)</definedName>
+    <definedName name="실제기간">'프로젝트 플래너'!A$5=MEDIAN('프로젝트 플래너'!A$5,'프로젝트 플래너'!$E1,'프로젝트 플래너'!$E1+'프로젝트 플래너'!$F1-1)</definedName>
     <definedName name="완료율">PercentCompleteBeyond*계획기간</definedName>
-    <definedName name="제목영역..BO60">'프로젝트 플래너'!$B$3:$B$4</definedName>
+    <definedName name="제목영역..BO60">'프로젝트 플래너'!$B$3:$B$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -134,13 +135,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -777,7 +779,7 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,18 +843,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -862,19 +873,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="33" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="% 완료" xfId="16"/>
-    <cellStyle name="% 완료(계획을 넘어서는) 범례" xfId="18"/>
+    <cellStyle name="% 완료" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% 완료(계획을 넘어서는) 범례" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - 강조색1" xfId="36" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="40" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="44" builtinId="38" customBuiltin="1"/>
@@ -901,12 +912,12 @@
     <cellStyle name="강조색6" xfId="55" builtinId="49" customBuiltin="1"/>
     <cellStyle name="경고문" xfId="32" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="29" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="기간 값" xfId="13"/>
-    <cellStyle name="기간 강조 표시 제어" xfId="7"/>
-    <cellStyle name="기간 머리글" xfId="3"/>
-    <cellStyle name="기간 범례" xfId="14"/>
+    <cellStyle name="기간 값" xfId="13" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="기간 강조 표시 제어" xfId="7" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="기간 머리글" xfId="3" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="기간 범례" xfId="14" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="나쁨" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="레이블" xfId="5"/>
+    <cellStyle name="레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="메모" xfId="33" builtinId="10" customBuiltin="1"/>
     <cellStyle name="백분율" xfId="23" builtinId="5" customBuiltin="1"/>
     <cellStyle name="보통" xfId="26" builtinId="28" customBuiltin="1"/>
@@ -914,10 +925,10 @@
     <cellStyle name="셀 확인" xfId="31" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표" xfId="19" builtinId="3" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="20" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="실제 범례" xfId="15"/>
-    <cellStyle name="실제(계획을 넘어서는) 범례" xfId="17"/>
+    <cellStyle name="실제 범례" xfId="15" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="실제(계획을 넘어서는) 범례" xfId="17" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="연결된 셀" xfId="30" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="완료율" xfId="6"/>
+    <cellStyle name="완료율" xfId="6" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="요약" xfId="34" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="27" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="8" builtinId="15" customBuiltin="1"/>
@@ -930,10 +941,30 @@
     <cellStyle name="통화" xfId="21" builtinId="4" customBuiltin="1"/>
     <cellStyle name="통화 [0]" xfId="22" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="프로젝트 머리글" xfId="4"/>
-    <cellStyle name="활동" xfId="2"/>
+    <cellStyle name="프로젝트 머리글" xfId="4" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="활동" xfId="2" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1315,25 +1346,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO13"/>
+  <dimension ref="B1:BO14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.3984375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="4.375" style="1" customWidth="1"/>
-    <col min="9" max="27" width="4.375" style="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="6" width="14.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="16" customWidth="1"/>
+    <col min="8" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="48" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="67" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
@@ -1347,13 +1381,13 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1361,56 +1395,56 @@
         <v>1</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="R2" s="12"/>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="28"/>
+      <c r="T2" s="24"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
       <c r="AA2" s="14"/>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
       <c r="AF2" s="20"/>
     </row>
-    <row r="3" spans="2:67" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:67" s="6" customFormat="1" ht="39.9" customHeight="1" thickTop="1">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -1437,596 +1471,704 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="2">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32">
+        <v>43729</v>
+      </c>
+      <c r="I4" s="32">
+        <v>43730</v>
+      </c>
+      <c r="J4" s="32">
+        <v>43731</v>
+      </c>
+      <c r="K4" s="32">
+        <v>43732</v>
+      </c>
+      <c r="L4" s="32">
+        <v>43733</v>
+      </c>
+      <c r="M4" s="33">
+        <v>43734</v>
+      </c>
+      <c r="N4" s="33">
+        <v>43735</v>
+      </c>
+      <c r="O4" s="33">
+        <v>43736</v>
+      </c>
+      <c r="P4" s="33">
+        <v>43737</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>43738</v>
+      </c>
+      <c r="R4" s="33">
+        <v>43739</v>
+      </c>
+      <c r="S4" s="33">
+        <v>43740</v>
+      </c>
+      <c r="T4" s="33">
+        <v>43741</v>
+      </c>
+      <c r="U4" s="33">
+        <v>43742</v>
+      </c>
+      <c r="V4" s="33">
+        <v>43743</v>
+      </c>
+      <c r="W4" s="33">
+        <v>43744</v>
+      </c>
+      <c r="X4" s="33">
+        <v>43745</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>43746</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>43747</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>43748</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>43749</v>
+      </c>
+      <c r="AC4" s="33">
+        <v>43750</v>
+      </c>
+      <c r="AD4" s="33">
+        <v>43751</v>
+      </c>
+      <c r="AE4" s="33">
+        <v>43752</v>
+      </c>
+      <c r="AF4" s="33">
+        <v>43753</v>
+      </c>
+      <c r="AG4" s="33">
+        <v>43754</v>
+      </c>
+      <c r="AH4" s="33">
+        <v>43755</v>
+      </c>
+      <c r="AI4" s="33">
+        <v>43756</v>
+      </c>
+      <c r="AJ4" s="33">
+        <v>43757</v>
+      </c>
+      <c r="AK4" s="33">
+        <v>43758</v>
+      </c>
+      <c r="AL4" s="33">
+        <v>43759</v>
+      </c>
+      <c r="AM4" s="33">
+        <v>43760</v>
+      </c>
+      <c r="AN4" s="33">
+        <v>43761</v>
+      </c>
+      <c r="AO4" s="33">
+        <v>43762</v>
+      </c>
+      <c r="AP4" s="33">
+        <v>43763</v>
+      </c>
+      <c r="AQ4" s="33">
+        <v>43764</v>
+      </c>
+      <c r="AR4" s="33">
+        <v>43765</v>
+      </c>
+      <c r="AS4" s="33">
+        <v>43766</v>
+      </c>
+      <c r="AT4" s="33">
+        <v>43767</v>
+      </c>
+      <c r="AU4" s="33">
+        <v>43768</v>
+      </c>
+      <c r="AV4" s="33">
+        <v>43769</v>
+      </c>
+      <c r="AW4" s="33">
+        <v>43770</v>
+      </c>
+      <c r="AX4" s="33">
+        <v>43771</v>
+      </c>
+      <c r="AY4" s="33">
+        <v>43772</v>
+      </c>
+      <c r="AZ4" s="33">
+        <v>43773</v>
+      </c>
+      <c r="BA4" s="33">
+        <v>43774</v>
+      </c>
+      <c r="BB4" s="33">
+        <v>43775</v>
+      </c>
+      <c r="BC4" s="33">
+        <v>43776</v>
+      </c>
+      <c r="BD4" s="33">
+        <v>43777</v>
+      </c>
+      <c r="BE4" s="33">
+        <v>43778</v>
+      </c>
+      <c r="BF4" s="33">
+        <v>43779</v>
+      </c>
+      <c r="BG4" s="33">
+        <v>43780</v>
+      </c>
+      <c r="BH4" s="33">
+        <v>43781</v>
+      </c>
+      <c r="BI4" s="33">
+        <v>43782</v>
+      </c>
+      <c r="BJ4" s="33">
+        <v>43783</v>
+      </c>
+      <c r="BK4" s="33">
+        <v>43784</v>
+      </c>
+      <c r="BL4" s="33">
+        <v>43785</v>
+      </c>
+      <c r="BM4" s="33">
+        <v>43786</v>
+      </c>
+      <c r="BN4" s="32">
+        <v>43787</v>
+      </c>
+      <c r="BO4" s="32">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="5" spans="2:67" ht="15.75" customHeight="1">
+      <c r="B5" s="29"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>5</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M5" s="2">
         <v>6</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N5" s="2">
         <v>7</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O5" s="2">
         <v>8</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>9</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>10</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R5" s="2">
         <v>11</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S5" s="2">
         <v>12</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T5" s="2">
         <v>13</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U5" s="2">
         <v>14</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V5" s="2">
         <v>15</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W5" s="2">
         <v>16</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X5" s="2">
         <v>17</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y5" s="2">
         <v>18</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z5" s="2">
         <v>19</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA5" s="2">
         <v>20</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB5" s="2">
         <v>21</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC5" s="2">
         <v>22</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD5" s="2">
         <v>23</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE5" s="2">
         <v>24</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF5" s="2">
         <v>25</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG5" s="2">
         <v>26</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH5" s="2">
         <v>27</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI5" s="2">
         <v>28</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ5" s="2">
         <v>29</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK5" s="2">
         <v>30</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL5" s="2">
         <v>31</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM5" s="2">
         <v>32</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN5" s="2">
         <v>33</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO5" s="2">
         <v>34</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP5" s="2">
         <v>35</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ5" s="2">
         <v>36</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR5" s="2">
         <v>37</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS5" s="2">
         <v>38</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT5" s="2">
         <v>39</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU5" s="2">
         <v>40</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV5" s="2">
         <v>41</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW5" s="2">
         <v>42</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX5" s="2">
         <v>43</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY5" s="2">
         <v>44</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ5" s="2">
         <v>45</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BA5" s="2">
         <v>46</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BB5" s="2">
         <v>47</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC5" s="2">
         <v>48</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BD5" s="2">
         <v>49</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BE5" s="2">
         <v>50</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BF5" s="2">
         <v>51</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BG5" s="2">
         <v>52</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BH5" s="2">
         <v>53</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BI5" s="2">
         <v>54</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BJ5" s="2">
         <v>55</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BK5" s="2">
         <v>56</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BL5" s="2">
         <v>57</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BM5" s="2">
         <v>58</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="BN5" s="2">
         <v>59</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BO5" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="30"/>
-      <c r="AW5" s="30"/>
-      <c r="AX5" s="30"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30"/>
-      <c r="BB5" s="30"/>
-      <c r="BC5" s="30"/>
-      <c r="BD5" s="30"/>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1">
       <c r="B6" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="19">
         <v>1</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="30"/>
-      <c r="BC6" s="30"/>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="30"/>
-      <c r="BF6" s="30"/>
-      <c r="BG6" s="30"/>
-      <c r="BH6" s="30"/>
-      <c r="BI6" s="30"/>
-      <c r="BJ6" s="30"/>
-      <c r="BK6" s="30"/>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="30"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
-      <c r="AW7" s="30"/>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="30"/>
-      <c r="AZ7" s="30"/>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="30"/>
-      <c r="BC7" s="30"/>
-      <c r="BD7" s="30"/>
-      <c r="BE7" s="30"/>
-      <c r="BF7" s="30"/>
-      <c r="BG7" s="30"/>
-      <c r="BH7" s="30"/>
-      <c r="BI7" s="30"/>
-      <c r="BJ7" s="30"/>
-      <c r="BK7" s="30"/>
-      <c r="BL7" s="30"/>
-      <c r="BM7" s="30"/>
-      <c r="BN7" s="30"/>
-      <c r="BO7" s="30"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E8" s="18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F8" s="18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="30"/>
-      <c r="AT8" s="30"/>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="30"/>
-      <c r="AW8" s="30"/>
-      <c r="AX8" s="30"/>
-      <c r="AY8" s="30"/>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="30"/>
-      <c r="BC8" s="30"/>
-      <c r="BD8" s="30"/>
-      <c r="BE8" s="30"/>
-      <c r="BF8" s="30"/>
-      <c r="BG8" s="30"/>
-      <c r="BH8" s="30"/>
-      <c r="BI8" s="30"/>
-      <c r="BJ8" s="30"/>
-      <c r="BK8" s="30"/>
-      <c r="BL8" s="30"/>
-      <c r="BM8" s="30"/>
-      <c r="BN8" s="30"/>
-      <c r="BO8" s="30"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
+      <c r="BK8" s="21"/>
+      <c r="BL8" s="21"/>
+      <c r="BM8" s="21"/>
+      <c r="BN8" s="21"/>
+      <c r="BO8" s="21"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" s="18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E9" s="18">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F9" s="18">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30"/>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30"/>
-      <c r="BO9" s="30"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="18">
         <v>17</v>
@@ -2035,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="18">
         <v>3</v>
@@ -2043,79 +2185,79 @@
       <c r="G10" s="19">
         <v>1</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30"/>
-      <c r="BE10" s="30"/>
-      <c r="BF10" s="30"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="30"/>
-      <c r="BI10" s="30"/>
-      <c r="BJ10" s="30"/>
-      <c r="BK10" s="30"/>
-      <c r="BL10" s="30"/>
-      <c r="BM10" s="30"/>
-      <c r="BN10" s="30"/>
-      <c r="BO10" s="30"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1">
       <c r="B11" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D11" s="18">
         <v>7</v>
       </c>
       <c r="E11" s="18">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="18">
         <v>3</v>
@@ -2123,298 +2265,383 @@
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
-      <c r="BI11" s="30"/>
-      <c r="BJ11" s="30"/>
-      <c r="BK11" s="30"/>
-      <c r="BL11" s="30"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="30"/>
-      <c r="BO11" s="30"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="18">
         <v>7</v>
       </c>
       <c r="E12" s="18">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G12" s="19">
         <v>1</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="30"/>
-      <c r="BI12" s="30"/>
-      <c r="BJ12" s="30"/>
-      <c r="BK12" s="30"/>
-      <c r="BL12" s="30"/>
-      <c r="BM12" s="30"/>
-      <c r="BN12" s="30"/>
-      <c r="BO12" s="30"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D13" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="18">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F13" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="30"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="30"/>
-      <c r="BG13" s="30"/>
-      <c r="BH13" s="30"/>
-      <c r="BI13" s="30"/>
-      <c r="BJ13" s="30"/>
-      <c r="BK13" s="30"/>
-      <c r="BL13" s="30"/>
-      <c r="BM13" s="30"/>
-      <c r="BN13" s="30"/>
-      <c r="BO13" s="30"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+      <c r="BM13" s="21"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="18">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18">
+        <v>5</v>
+      </c>
+      <c r="E14" s="18">
+        <v>37</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="H5:BO13">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H6:BO14">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>완료율</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>실제</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>계획</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>H$4=period_selected</formula>
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>H$5=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:BO14">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B15:BO15">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+  <conditionalFormatting sqref="H5:BO5">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>H$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다" prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="H2">
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>H$5=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다" prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 계획 기간을 나타냅니다." sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="N2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 완료된 프로젝트의 백분율을 나타냅니다." sqref="R2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 계획을 넘어서는 실제 기간을 나타냅니다." sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AA2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5_x000a_부터 시작하여 B 열에 활동을 입력합니다." sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 계획 기간을 나타냅니다." sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="N2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 완료된 프로젝트의 백분율을 나타냅니다." sqref="R2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 계획을 넘어서는 실제 기간을 나타냅니다." sqref="U2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AA2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5_x000a_부터 시작하여 B 열에 활동을 입력합니다." sqref="B3:B5" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="C3:C5" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="D3:D5" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="E3:E5" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="F3:F5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="G3:G5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
